--- a/closingPricesAndHoldingsPAndL.xlsx
+++ b/closingPricesAndHoldingsPAndL.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,9 +407,12 @@
         <v>Script</v>
       </c>
       <c r="B1" t="str">
+        <v>My Buying Average</v>
+      </c>
+      <c r="C1" t="str">
         <v>NSE-Close</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>OverallG/L</v>
       </c>
     </row>
@@ -418,10 +421,13 @@
         <v>BankBees</v>
       </c>
       <c r="B2">
-        <v>510.51</v>
-      </c>
-      <c r="C2" t="str">
-        <v>5.18%</v>
+        <v>485.36</v>
+      </c>
+      <c r="C2">
+        <v>512.14</v>
+      </c>
+      <c r="D2" t="str">
+        <v>5.52%</v>
       </c>
     </row>
     <row r="3">
@@ -429,10 +435,13 @@
         <v>GoldBees</v>
       </c>
       <c r="B3">
-        <v>60.59</v>
-      </c>
-      <c r="C3" t="str">
-        <v>12.83%</v>
+        <v>53.7</v>
+      </c>
+      <c r="C3">
+        <v>60.6</v>
+      </c>
+      <c r="D3" t="str">
+        <v>12.85%</v>
       </c>
     </row>
     <row r="4">
@@ -440,10 +449,13 @@
         <v>JuniorBees</v>
       </c>
       <c r="B4">
-        <v>753.82</v>
-      </c>
-      <c r="C4" t="str">
-        <v>15.19%</v>
+        <v>654.44</v>
+      </c>
+      <c r="C4">
+        <v>764.4</v>
+      </c>
+      <c r="D4" t="str">
+        <v>16.8%</v>
       </c>
     </row>
     <row r="5">
@@ -451,10 +463,13 @@
         <v>Mid150Bees</v>
       </c>
       <c r="B5">
-        <v>209.92</v>
-      </c>
-      <c r="C5" t="str">
-        <v>11.9%</v>
+        <v>187.59</v>
+      </c>
+      <c r="C5">
+        <v>212.23</v>
+      </c>
+      <c r="D5" t="str">
+        <v>13.14%</v>
       </c>
     </row>
     <row r="6">
@@ -462,10 +477,13 @@
         <v>NiftyBees</v>
       </c>
       <c r="B6">
-        <v>260.3</v>
-      </c>
-      <c r="C6" t="str">
-        <v>5.49%</v>
+        <v>246.76</v>
+      </c>
+      <c r="C6">
+        <v>260.65</v>
+      </c>
+      <c r="D6" t="str">
+        <v>5.63%</v>
       </c>
     </row>
     <row r="7">
@@ -473,15 +491,18 @@
         <v>SilverBees</v>
       </c>
       <c r="B7">
-        <v>86.58</v>
-      </c>
-      <c r="C7" t="str">
-        <v>12.92%</v>
+        <v>76.67</v>
+      </c>
+      <c r="C7">
+        <v>86.11</v>
+      </c>
+      <c r="D7" t="str">
+        <v>12.31%</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/closingPricesAndHoldingsPAndL.xlsx
+++ b/closingPricesAndHoldingsPAndL.xlsx
@@ -424,10 +424,10 @@
         <v>485.36</v>
       </c>
       <c r="C2">
-        <v>512.14</v>
+        <v>540.11</v>
       </c>
       <c r="D2" t="str">
-        <v>5.52%</v>
+        <v>11.28%</v>
       </c>
     </row>
     <row r="3">
@@ -438,10 +438,10 @@
         <v>53.7</v>
       </c>
       <c r="C3">
-        <v>60.6</v>
+        <v>60.32</v>
       </c>
       <c r="D3" t="str">
-        <v>12.85%</v>
+        <v>12.33%</v>
       </c>
     </row>
     <row r="4">
@@ -452,10 +452,10 @@
         <v>654.44</v>
       </c>
       <c r="C4">
-        <v>764.4</v>
+        <v>759.09</v>
       </c>
       <c r="D4" t="str">
-        <v>16.8%</v>
+        <v>15.99%</v>
       </c>
     </row>
     <row r="5">
@@ -466,10 +466,10 @@
         <v>187.59</v>
       </c>
       <c r="C5">
-        <v>212.23</v>
+        <v>212.69</v>
       </c>
       <c r="D5" t="str">
-        <v>13.14%</v>
+        <v>13.38%</v>
       </c>
     </row>
     <row r="6">
@@ -480,10 +480,10 @@
         <v>246.76</v>
       </c>
       <c r="C6">
-        <v>260.65</v>
+        <v>266.95</v>
       </c>
       <c r="D6" t="str">
-        <v>5.63%</v>
+        <v>8.18%</v>
       </c>
     </row>
     <row r="7">
@@ -494,10 +494,10 @@
         <v>76.67</v>
       </c>
       <c r="C7">
-        <v>86.11</v>
+        <v>85.06</v>
       </c>
       <c r="D7" t="str">
-        <v>12.31%</v>
+        <v>10.94%</v>
       </c>
     </row>
   </sheetData>
